--- a/FL_DataSet/FL_coordinates_train.xlsx
+++ b/FL_DataSet/FL_coordinates_train.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcao1\PycharmProjects\aiProject\FL_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcao1\PycharmProjects\aiProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3016B22C-4639-4518-B9B3-A361161A4D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65414624-D8C4-4010-A96D-2545D577F241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="135" windowWidth="16560" windowHeight="14497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1974"/>
+  <dimension ref="A1:B1881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1613" workbookViewId="0">
-      <selection activeCell="A1625" sqref="A1625:XFD1974"/>
+    <sheetView tabSelected="1" topLeftCell="A1866" workbookViewId="0">
+      <selection activeCell="A1882" sqref="A1882:XFD1888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -13398,2807 +13398,2062 @@
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1625">
-        <v>25.728652793501041</v>
+        <v>25.78882207636002</v>
       </c>
       <c r="B1625">
-        <v>-80.187615286957168</v>
+        <v>-80.158132445662986</v>
       </c>
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1626">
-        <v>25.78882207636002</v>
+        <v>28.525309173345651</v>
       </c>
       <c r="B1626">
-        <v>-80.158132445662986</v>
+        <v>-81.36890868359967</v>
       </c>
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1627">
-        <v>28.525309173345651</v>
+        <v>29.610478322142342</v>
       </c>
       <c r="B1627">
-        <v>-81.36890868359967</v>
+        <v>-82.332985911786821</v>
       </c>
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1628">
-        <v>29.610478322142342</v>
+        <v>30.435936628173611</v>
       </c>
       <c r="B1628">
-        <v>-82.332985911786821</v>
+        <v>-87.261750691787711</v>
       </c>
     </row>
     <row r="1629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1629">
-        <v>30.435936628173611</v>
+        <v>28.529870452979271</v>
       </c>
       <c r="B1629">
-        <v>-87.261750691787711</v>
+        <v>-81.421809380884213</v>
       </c>
     </row>
     <row r="1630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1630">
-        <v>28.529870452979271</v>
+        <v>30.356621657748718</v>
       </c>
       <c r="B1630">
-        <v>-81.421809380884213</v>
+        <v>-81.69500288300415</v>
       </c>
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1631">
-        <v>30.356621657748718</v>
+        <v>28.531413654980589</v>
       </c>
       <c r="B1631">
-        <v>-81.69500288300415</v>
+        <v>-81.392331154775292</v>
       </c>
     </row>
     <row r="1632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1632">
-        <v>28.531413654980589</v>
+        <v>29.6903651132173</v>
       </c>
       <c r="B1632">
-        <v>-81.392331154775292</v>
+        <v>-82.348988633293231</v>
       </c>
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1633">
-        <v>29.6903651132173</v>
+        <v>30.424770162045402</v>
       </c>
       <c r="B1633">
-        <v>-82.348988633293231</v>
+        <v>-84.244301556487187</v>
       </c>
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1634">
-        <v>27.960925699910611</v>
+        <v>30.43222882333265</v>
       </c>
       <c r="B1634">
-        <v>-82.781072434082972</v>
+        <v>-84.267295760629665</v>
       </c>
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1635">
-        <v>30.424770162045402</v>
+        <v>26.688091613299591</v>
       </c>
       <c r="B1635">
-        <v>-84.244301556487187</v>
+        <v>-80.061514022842431</v>
       </c>
     </row>
     <row r="1636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1636">
-        <v>30.43222882333265</v>
+        <v>30.399172580525018</v>
       </c>
       <c r="B1636">
-        <v>-84.267295760629665</v>
+        <v>-84.30502950360173</v>
       </c>
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1637">
-        <v>26.688091613299591</v>
+        <v>25.76350299395035</v>
       </c>
       <c r="B1637">
-        <v>-80.061514022842431</v>
+        <v>-80.225586661327242</v>
       </c>
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1638">
-        <v>27.728612203383062</v>
+        <v>27.95497809324964</v>
       </c>
       <c r="B1638">
-        <v>-82.60445658181672</v>
+        <v>-82.466440847107165</v>
       </c>
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1639">
-        <v>30.399172580525018</v>
+        <v>26.176571040458519</v>
       </c>
       <c r="B1639">
-        <v>-84.30502950360173</v>
+        <v>-81.806973853261965</v>
       </c>
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1640">
-        <v>25.76350299395035</v>
+        <v>27.31299151933035</v>
       </c>
       <c r="B1640">
-        <v>-80.225586661327242</v>
+        <v>-82.5122943683063</v>
       </c>
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1641">
-        <v>27.95497809324964</v>
+        <v>26.142050467214251</v>
       </c>
       <c r="B1641">
-        <v>-82.466440847107165</v>
+        <v>-80.138092169646342</v>
       </c>
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1642">
-        <v>26.176571040458519</v>
+        <v>29.683992924993891</v>
       </c>
       <c r="B1642">
-        <v>-81.806973853261965</v>
+        <v>-82.303580992372076</v>
       </c>
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1643">
-        <v>27.31299151933035</v>
+        <v>26.686997371338901</v>
       </c>
       <c r="B1643">
-        <v>-82.5122943683063</v>
+        <v>-81.850390137506793</v>
       </c>
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1644">
-        <v>26.142050467214251</v>
+        <v>27.377859680198039</v>
       </c>
       <c r="B1644">
-        <v>-80.138092169646342</v>
+        <v>-82.512206751613562</v>
       </c>
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1645">
-        <v>29.683992924993891</v>
+        <v>30.391089053500501</v>
       </c>
       <c r="B1645">
-        <v>-82.303580992372076</v>
+        <v>-87.235585734490513</v>
       </c>
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1646">
-        <v>26.686997371338901</v>
+        <v>25.738982739325252</v>
       </c>
       <c r="B1646">
-        <v>-81.850390137506793</v>
+        <v>-80.229262107740595</v>
       </c>
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1647">
-        <v>25.71280702289835</v>
+        <v>25.776351419622031</v>
       </c>
       <c r="B1647">
-        <v>-80.192163850938925</v>
+        <v>-80.188514668069786</v>
       </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1648">
-        <v>27.377859680198039</v>
+        <v>27.959556205449129</v>
       </c>
       <c r="B1648">
-        <v>-82.512206751613562</v>
+        <v>-82.469172608896002</v>
       </c>
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1649">
-        <v>30.391089053500501</v>
+        <v>28.551500818368321</v>
       </c>
       <c r="B1649">
-        <v>-87.235585734490513</v>
+        <v>-81.333183747614427</v>
       </c>
     </row>
     <row r="1650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1650">
-        <v>26.731416207475579</v>
+        <v>30.451565928131739</v>
       </c>
       <c r="B1650">
-        <v>-80.099090730391666</v>
+        <v>-84.270186950190009</v>
       </c>
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1651">
-        <v>25.738982739325252</v>
+        <v>26.076680846276719</v>
       </c>
       <c r="B1651">
-        <v>-80.229262107740595</v>
+        <v>-80.133083669431912</v>
       </c>
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1652">
-        <v>25.776351419622031</v>
+        <v>29.6904054751645</v>
       </c>
       <c r="B1652">
-        <v>-80.188514668069786</v>
+        <v>-82.327110019623902</v>
       </c>
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1653">
-        <v>27.959556205449129</v>
+        <v>26.758247780403831</v>
       </c>
       <c r="B1653">
-        <v>-82.469172608896002</v>
+        <v>-80.075115368658288</v>
       </c>
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1654">
-        <v>26.627616079953889</v>
+        <v>29.701458177092722</v>
       </c>
       <c r="B1654">
-        <v>-81.91802765068725</v>
+        <v>-82.295795298229663</v>
       </c>
     </row>
     <row r="1655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1655">
-        <v>30.308360179774962</v>
+        <v>28.574101288202929</v>
       </c>
       <c r="B1655">
-        <v>-81.685434556189406</v>
+        <v>-81.382433645282205</v>
       </c>
     </row>
     <row r="1656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1656">
-        <v>27.384956100311548</v>
+        <v>30.354078703377869</v>
       </c>
       <c r="B1656">
-        <v>-82.492809937203049</v>
+        <v>-81.67971150006305</v>
       </c>
     </row>
     <row r="1657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1657">
-        <v>28.551500818368321</v>
+        <v>26.7377606719493</v>
       </c>
       <c r="B1657">
-        <v>-81.333183747614427</v>
+        <v>-80.04755278554957</v>
       </c>
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1658">
-        <v>30.451565928131739</v>
+        <v>27.757352392966759</v>
       </c>
       <c r="B1658">
-        <v>-84.270186950190009</v>
+        <v>-82.687588638166716</v>
       </c>
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1659">
-        <v>26.076680846276719</v>
+        <v>30.29280101274265</v>
       </c>
       <c r="B1659">
-        <v>-80.133083669431912</v>
+        <v>-81.696651736045567</v>
       </c>
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1660">
-        <v>29.6904054751645</v>
+        <v>30.447869083555219</v>
       </c>
       <c r="B1660">
-        <v>-82.327110019623902</v>
+        <v>-87.244848984423427</v>
       </c>
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1661">
-        <v>26.140276727786979</v>
+        <v>29.67670415600476</v>
       </c>
       <c r="B1661">
-        <v>-81.812259077398423</v>
+        <v>-82.343398410926554</v>
       </c>
     </row>
     <row r="1662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1662">
-        <v>26.758247780403831</v>
+        <v>30.470909302690039</v>
       </c>
       <c r="B1662">
-        <v>-80.075115368658288</v>
+        <v>-84.292017314847158</v>
       </c>
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1663">
-        <v>30.303635747054411</v>
+        <v>26.632969974250418</v>
       </c>
       <c r="B1663">
-        <v>-81.611380991057985</v>
+        <v>-81.903778128875913</v>
       </c>
     </row>
     <row r="1664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1664">
-        <v>29.701458177092722</v>
+        <v>27.304578039859109</v>
       </c>
       <c r="B1664">
-        <v>-82.295795298229663</v>
+        <v>-82.55359391053392</v>
       </c>
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1665">
-        <v>28.574101288202929</v>
+        <v>28.540793890751949</v>
       </c>
       <c r="B1665">
-        <v>-81.382433645282205</v>
+        <v>-81.347573550291486</v>
       </c>
     </row>
     <row r="1666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1666">
-        <v>30.354078703377869</v>
+        <v>30.341268454881629</v>
       </c>
       <c r="B1666">
-        <v>-81.67971150006305</v>
+        <v>-81.681523474157444</v>
       </c>
     </row>
     <row r="1667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1667">
-        <v>26.7377606719493</v>
+        <v>27.92969577834333</v>
       </c>
       <c r="B1667">
-        <v>-80.04755278554957</v>
+        <v>-82.426138490934093</v>
       </c>
     </row>
     <row r="1668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1668">
-        <v>27.757352392966759</v>
+        <v>28.54782153919632</v>
       </c>
       <c r="B1668">
-        <v>-82.687588638166716</v>
+        <v>-81.42544731434289</v>
       </c>
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1669">
-        <v>30.29280101274265</v>
+        <v>27.945243143929648</v>
       </c>
       <c r="B1669">
-        <v>-81.696651736045567</v>
+        <v>-82.475028956438436</v>
       </c>
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1670">
-        <v>30.447869083555219</v>
+        <v>26.36246370677296</v>
       </c>
       <c r="B1670">
-        <v>-87.244848984423427</v>
+        <v>-80.165589100681871</v>
       </c>
     </row>
     <row r="1671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1671">
-        <v>29.67670415600476</v>
+        <v>30.38722497494151</v>
       </c>
       <c r="B1671">
-        <v>-82.343398410926554</v>
+        <v>-87.171619524288317</v>
       </c>
     </row>
     <row r="1672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1672">
-        <v>30.470909302690039</v>
+        <v>26.38177251372591</v>
       </c>
       <c r="B1672">
-        <v>-84.292017314847158</v>
+        <v>-80.106734405032157</v>
       </c>
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1673">
-        <v>26.632969974250418</v>
+        <v>30.410984702504049</v>
       </c>
       <c r="B1673">
-        <v>-81.903778128875913</v>
+        <v>-87.178533553987549</v>
       </c>
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1674">
-        <v>26.679908412799371</v>
+        <v>26.08774672128623</v>
       </c>
       <c r="B1674">
-        <v>-80.094724019471542</v>
+        <v>-80.156499031343969</v>
       </c>
     </row>
     <row r="1675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1675">
-        <v>27.304578039859109</v>
+        <v>26.099484094158559</v>
       </c>
       <c r="B1675">
-        <v>-82.55359391053392</v>
+        <v>-80.158669360639834</v>
       </c>
     </row>
     <row r="1676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1676">
-        <v>28.540793890751949</v>
+        <v>30.471646711636119</v>
       </c>
       <c r="B1676">
-        <v>-81.347573550291486</v>
+        <v>-84.312443225111778</v>
       </c>
     </row>
     <row r="1677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1677">
-        <v>30.341268454881629</v>
+        <v>30.369421391677179</v>
       </c>
       <c r="B1677">
-        <v>-81.681523474157444</v>
+        <v>-81.693205899542022</v>
       </c>
     </row>
     <row r="1678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1678">
-        <v>27.8025239087034</v>
+        <v>29.690605993030879</v>
       </c>
       <c r="B1678">
-        <v>-82.592885962513847</v>
+        <v>-82.367997932176081</v>
       </c>
     </row>
     <row r="1679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1679">
-        <v>27.92969577834333</v>
+        <v>28.007110400363221</v>
       </c>
       <c r="B1679">
-        <v>-82.426138490934093</v>
+        <v>-82.80837001964484</v>
       </c>
     </row>
     <row r="1680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1680">
-        <v>28.54782153919632</v>
+        <v>29.70144879825013</v>
       </c>
       <c r="B1680">
-        <v>-81.42544731434289</v>
+        <v>-82.365179782424661</v>
       </c>
     </row>
     <row r="1681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1681">
-        <v>27.945243143929648</v>
+        <v>25.733139416301508</v>
       </c>
       <c r="B1681">
-        <v>-82.475028956438436</v>
+        <v>-80.240379256596142</v>
       </c>
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1682">
-        <v>26.36246370677296</v>
+        <v>30.392566579917339</v>
       </c>
       <c r="B1682">
-        <v>-80.165589100681871</v>
+        <v>-87.258596977359858</v>
       </c>
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1683">
-        <v>30.38722497494151</v>
+        <v>28.5209740258396</v>
       </c>
       <c r="B1683">
-        <v>-87.171619524288317</v>
+        <v>-81.346247669379196</v>
       </c>
     </row>
     <row r="1684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1684">
-        <v>26.38177251372591</v>
+        <v>30.354484544243149</v>
       </c>
       <c r="B1684">
-        <v>-80.106734405032157</v>
+        <v>-81.613684647683485</v>
       </c>
     </row>
     <row r="1685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1685">
-        <v>30.410984702504049</v>
+        <v>30.47325694321875</v>
       </c>
       <c r="B1685">
-        <v>-87.178533553987549</v>
+        <v>-84.232008189084141</v>
       </c>
     </row>
     <row r="1686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1686">
-        <v>26.08774672128623</v>
+        <v>28.490864353961459</v>
       </c>
       <c r="B1686">
-        <v>-80.156499031343969</v>
+        <v>-81.406841531364663</v>
       </c>
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1687">
-        <v>26.099484094158559</v>
+        <v>30.40279809950988</v>
       </c>
       <c r="B1687">
-        <v>-80.158669360639834</v>
+        <v>-87.2513715474213</v>
       </c>
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1688">
-        <v>30.471646711636119</v>
+        <v>26.64781216132841</v>
       </c>
       <c r="B1688">
-        <v>-84.312443225111778</v>
+        <v>-81.894986875796008</v>
       </c>
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1689">
-        <v>30.28266633891398</v>
+        <v>27.32147881085989</v>
       </c>
       <c r="B1689">
-        <v>-81.609667882392685</v>
+        <v>-82.488193943087907</v>
       </c>
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1690">
-        <v>30.369421391677179</v>
+        <v>29.68700962398329</v>
       </c>
       <c r="B1690">
-        <v>-81.693205899542022</v>
+        <v>-82.288526498107387</v>
       </c>
     </row>
     <row r="1691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1691">
-        <v>29.690605993030879</v>
+        <v>30.37586812286597</v>
       </c>
       <c r="B1691">
-        <v>-82.367997932176081</v>
+        <v>-81.687409383780121</v>
       </c>
     </row>
     <row r="1692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1692">
-        <v>28.007110400363221</v>
+        <v>26.736760121210381</v>
       </c>
       <c r="B1692">
-        <v>-82.80837001964484</v>
+        <v>-80.060874873633978</v>
       </c>
     </row>
     <row r="1693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1693">
-        <v>29.70144879825013</v>
+        <v>25.778767632034519</v>
       </c>
       <c r="B1693">
-        <v>-82.365179782424661</v>
+        <v>-80.143356186315501</v>
       </c>
     </row>
     <row r="1694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1694">
-        <v>25.733139416301508</v>
+        <v>26.676026170989001</v>
       </c>
       <c r="B1694">
-        <v>-80.240379256596142</v>
+        <v>-81.886636035323477</v>
       </c>
     </row>
     <row r="1695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1695">
-        <v>30.392566579917339</v>
+        <v>27.933043012003608</v>
       </c>
       <c r="B1695">
-        <v>-87.258596977359858</v>
+        <v>-82.500974167017731</v>
       </c>
     </row>
     <row r="1696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1696">
-        <v>26.4180077365959</v>
+        <v>29.689260315661869</v>
       </c>
       <c r="B1696">
-        <v>-80.174455114879677</v>
+        <v>-82.293856048094568</v>
       </c>
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1697">
-        <v>28.5209740258396</v>
+        <v>30.38636402092758</v>
       </c>
       <c r="B1697">
-        <v>-81.346247669379196</v>
+        <v>-87.247854013460866</v>
       </c>
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1698">
-        <v>30.354484544243149</v>
+        <v>30.42178104827477</v>
       </c>
       <c r="B1698">
-        <v>-81.613684647683485</v>
+        <v>-87.175482720921934</v>
       </c>
     </row>
     <row r="1699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1699">
-        <v>30.47325694321875</v>
+        <v>30.43862312671526</v>
       </c>
       <c r="B1699">
-        <v>-84.232008189084141</v>
+        <v>-87.187937689772824</v>
       </c>
     </row>
     <row r="1700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1700">
-        <v>28.490864353961459</v>
+        <v>28.577987958669809</v>
       </c>
       <c r="B1700">
-        <v>-81.406841531364663</v>
+        <v>-81.427112646249967</v>
       </c>
     </row>
     <row r="1701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1701">
-        <v>30.40279809950988</v>
+        <v>27.916262529703751</v>
       </c>
       <c r="B1701">
-        <v>-87.2513715474213</v>
+        <v>-82.773431595194438</v>
       </c>
     </row>
     <row r="1702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1702">
-        <v>30.406295848513221</v>
+        <v>26.74401184115262</v>
       </c>
       <c r="B1702">
-        <v>-87.199702085338615</v>
+        <v>-80.081081316462303</v>
       </c>
     </row>
     <row r="1703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1703">
-        <v>26.64781216132841</v>
+        <v>27.359641930289872</v>
       </c>
       <c r="B1703">
-        <v>-81.894986875796008</v>
+        <v>-82.515114770067228</v>
       </c>
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1704">
-        <v>26.736045537269082</v>
+        <v>27.31385218105801</v>
       </c>
       <c r="B1704">
-        <v>-80.011452050611652</v>
+        <v>-82.573299696977287</v>
       </c>
     </row>
     <row r="1705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1705">
-        <v>25.737246460371541</v>
+        <v>27.801788400826212</v>
       </c>
       <c r="B1705">
-        <v>-80.154054372080225</v>
+        <v>-82.603460425197085</v>
       </c>
     </row>
     <row r="1706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1706">
-        <v>26.608385409823391</v>
+        <v>25.773944818583701</v>
       </c>
       <c r="B1706">
-        <v>-81.822641169353474</v>
+        <v>-80.22234896811689</v>
       </c>
     </row>
     <row r="1707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1707">
-        <v>27.32147881085989</v>
+        <v>26.65464407534299</v>
       </c>
       <c r="B1707">
-        <v>-82.488193943087907</v>
+        <v>-81.910382282985779</v>
       </c>
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1708">
-        <v>27.983814837893661</v>
+        <v>26.368575028045559</v>
       </c>
       <c r="B1708">
-        <v>-82.829157568791871</v>
+        <v>-80.15605810628054</v>
       </c>
     </row>
     <row r="1709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1709">
-        <v>29.68700962398329</v>
+        <v>29.671451317935229</v>
       </c>
       <c r="B1709">
-        <v>-82.288526498107387</v>
+        <v>-82.361290686964011</v>
       </c>
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1710">
-        <v>30.37586812286597</v>
+        <v>26.69977777403658</v>
       </c>
       <c r="B1710">
-        <v>-81.687409383780121</v>
+        <v>-80.100165764344652</v>
       </c>
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1711">
-        <v>26.736760121210381</v>
+        <v>27.80798181316246</v>
       </c>
       <c r="B1711">
-        <v>-80.060874873633978</v>
+        <v>-82.592796007551641</v>
       </c>
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1712">
-        <v>26.610997622085922</v>
+        <v>30.452896272038601</v>
       </c>
       <c r="B1712">
-        <v>-81.824563484963818</v>
+        <v>-87.171185191710151</v>
       </c>
     </row>
     <row r="1713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1713">
-        <v>30.39997090671708</v>
+        <v>30.462457720194219</v>
       </c>
       <c r="B1713">
-        <v>-87.198979328888058</v>
+        <v>-84.3154630476661</v>
       </c>
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1714">
-        <v>25.778767632034519</v>
+        <v>27.73099228133518</v>
       </c>
       <c r="B1714">
-        <v>-80.143356186315501</v>
+        <v>-82.654556240782497</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1715">
-        <v>26.676026170989001</v>
+        <v>26.135654822326948</v>
       </c>
       <c r="B1715">
-        <v>-81.886636035323477</v>
+        <v>-80.12707675784138</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1716">
-        <v>27.933043012003608</v>
+        <v>26.733746596466919</v>
       </c>
       <c r="B1716">
-        <v>-82.500974167017731</v>
+        <v>-80.090381443359021</v>
       </c>
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1717">
-        <v>29.689260315661869</v>
+        <v>27.906612938218341</v>
       </c>
       <c r="B1717">
-        <v>-82.293856048094568</v>
+        <v>-82.493783049013558</v>
       </c>
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1718">
-        <v>28.00581206074234</v>
+        <v>27.730833136051132</v>
       </c>
       <c r="B1718">
-        <v>-82.822237290636238</v>
+        <v>-82.644324063674702</v>
       </c>
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1719">
-        <v>30.38636402092758</v>
+        <v>26.37664509635966</v>
       </c>
       <c r="B1719">
-        <v>-87.247854013460866</v>
+        <v>-80.122960522630194</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1720">
-        <v>30.42178104827477</v>
+        <v>26.116347318632439</v>
       </c>
       <c r="B1720">
-        <v>-87.175482720921934</v>
+        <v>-80.129310649606438</v>
       </c>
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1721">
-        <v>26.124385930912169</v>
+        <v>28.00924149501575</v>
       </c>
       <c r="B1721">
-        <v>-80.097094494052499</v>
+        <v>-82.808071258061574</v>
       </c>
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1722">
-        <v>30.43862312671526</v>
+        <v>26.410454320133901</v>
       </c>
       <c r="B1722">
-        <v>-87.187937689772824</v>
+        <v>-80.164569861232394</v>
       </c>
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1723">
-        <v>28.577987958669809</v>
+        <v>25.809761170682769</v>
       </c>
       <c r="B1723">
-        <v>-81.427112646249967</v>
+        <v>-80.221823886512112</v>
       </c>
     </row>
     <row r="1724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1724">
-        <v>27.916262529703751</v>
+        <v>30.409806656159429</v>
       </c>
       <c r="B1724">
-        <v>-82.773431595194438</v>
+        <v>-87.255532450948749</v>
       </c>
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1725">
-        <v>26.74401184115262</v>
+        <v>26.154996132468199</v>
       </c>
       <c r="B1725">
-        <v>-80.081081316462303</v>
+        <v>-81.789748677763441</v>
       </c>
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1726">
-        <v>27.359641930289872</v>
+        <v>27.329913297760299</v>
       </c>
       <c r="B1726">
-        <v>-82.515114770067228</v>
+        <v>-82.513634335224836</v>
       </c>
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1727">
-        <v>26.67969109676708</v>
+        <v>25.77608737933604</v>
       </c>
       <c r="B1727">
-        <v>-80.078260270110661</v>
+        <v>-80.213981630361232</v>
       </c>
     </row>
     <row r="1728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1728">
-        <v>27.31385218105801</v>
+        <v>30.390697631104501</v>
       </c>
       <c r="B1728">
-        <v>-82.573299696977287</v>
+        <v>-87.236762809317113</v>
       </c>
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1729">
-        <v>27.801788400826212</v>
+        <v>26.151679066848331</v>
       </c>
       <c r="B1729">
-        <v>-82.603460425197085</v>
+        <v>-81.804268242564845</v>
       </c>
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1730">
-        <v>27.816372686616699</v>
+        <v>30.393939542061968</v>
       </c>
       <c r="B1730">
-        <v>-82.664590412944378</v>
+        <v>-84.2325757247512</v>
       </c>
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1731">
-        <v>25.773944818583701</v>
+        <v>26.14102214303858</v>
       </c>
       <c r="B1731">
-        <v>-80.22234896811689</v>
+        <v>-80.159196439452046</v>
       </c>
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1732">
-        <v>26.65464407534299</v>
+        <v>28.56528376603832</v>
       </c>
       <c r="B1732">
-        <v>-81.910382282985779</v>
+        <v>-81.395375525014686</v>
       </c>
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1733">
-        <v>26.368575028045559</v>
+        <v>26.07327238911056</v>
       </c>
       <c r="B1733">
-        <v>-80.15605810628054</v>
+        <v>-80.144808370994298</v>
       </c>
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1734">
-        <v>29.671451317935229</v>
+        <v>27.30282963058513</v>
       </c>
       <c r="B1734">
-        <v>-82.361290686964011</v>
+        <v>-82.565162052985372</v>
       </c>
     </row>
     <row r="1735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1735">
-        <v>26.69977777403658</v>
+        <v>26.11251048443172</v>
       </c>
       <c r="B1735">
-        <v>-80.100165764344652</v>
+        <v>-80.110196180528376</v>
       </c>
     </row>
     <row r="1736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1736">
-        <v>27.80798181316246</v>
+        <v>28.51135059349194</v>
       </c>
       <c r="B1736">
-        <v>-82.592796007551641</v>
+        <v>-81.420261756659428</v>
       </c>
     </row>
     <row r="1737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1737">
-        <v>30.452896272038601</v>
+        <v>26.643686472019489</v>
       </c>
       <c r="B1737">
-        <v>-87.171185191710151</v>
+        <v>-81.856016675170736</v>
       </c>
     </row>
     <row r="1738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1738">
-        <v>30.462457720194219</v>
+        <v>28.50404074368674</v>
       </c>
       <c r="B1738">
-        <v>-84.3154630476661</v>
+        <v>-81.393031881126888</v>
       </c>
     </row>
     <row r="1739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1739">
-        <v>27.73099228133518</v>
+        <v>26.731449318663781</v>
       </c>
       <c r="B1739">
-        <v>-82.654556240782497</v>
+        <v>-80.063140299694766</v>
       </c>
     </row>
     <row r="1740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1740">
-        <v>26.135654822326948</v>
+        <v>30.435388712929822</v>
       </c>
       <c r="B1740">
-        <v>-80.12707675784138</v>
+        <v>-84.249076481066922</v>
       </c>
     </row>
     <row r="1741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1741">
-        <v>26.733746596466919</v>
+        <v>29.677739663532019</v>
       </c>
       <c r="B1741">
-        <v>-80.090381443359021</v>
+        <v>-82.336897701876083</v>
       </c>
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1742">
-        <v>27.906612938218341</v>
+        <v>29.631858020897539</v>
       </c>
       <c r="B1742">
-        <v>-82.493783049013558</v>
+        <v>-82.329430852421766</v>
       </c>
     </row>
     <row r="1743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1743">
-        <v>27.730833136051132</v>
+        <v>30.436574851400369</v>
       </c>
       <c r="B1743">
-        <v>-82.644324063674702</v>
+        <v>-84.249618794689027</v>
       </c>
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1744">
-        <v>26.37664509635966</v>
+        <v>26.35532974141832</v>
       </c>
       <c r="B1744">
-        <v>-80.122960522630194</v>
+        <v>-80.137330483310762</v>
       </c>
     </row>
     <row r="1745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1745">
-        <v>26.116347318632439</v>
+        <v>27.298647804795841</v>
       </c>
       <c r="B1745">
-        <v>-80.129310649606438</v>
+        <v>-82.536812215395159</v>
       </c>
     </row>
     <row r="1746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1746">
-        <v>28.00924149501575</v>
+        <v>27.927410196002072</v>
       </c>
       <c r="B1746">
-        <v>-82.808071258061574</v>
+        <v>-82.815537275423253</v>
       </c>
     </row>
     <row r="1747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1747">
-        <v>26.410454320133901</v>
+        <v>27.99559105240883</v>
       </c>
       <c r="B1747">
-        <v>-80.164569861232394</v>
+        <v>-82.818359736499261</v>
       </c>
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1748">
-        <v>26.67826043833114</v>
+        <v>30.290057243285371</v>
       </c>
       <c r="B1748">
-        <v>-81.844701854686093</v>
+        <v>-81.667794113723602</v>
       </c>
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1749">
-        <v>25.809761170682769</v>
+        <v>27.816489267926819</v>
       </c>
       <c r="B1749">
-        <v>-80.221823886512112</v>
+        <v>-82.622467313269155</v>
       </c>
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1750">
-        <v>30.409806656159429</v>
+        <v>27.968211158397459</v>
       </c>
       <c r="B1750">
-        <v>-87.255532450948749</v>
+        <v>-82.44582934521361</v>
       </c>
     </row>
     <row r="1751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1751">
-        <v>26.365860778885061</v>
+        <v>26.106397282740531</v>
       </c>
       <c r="B1751">
-        <v>-80.112112233724005</v>
+        <v>-80.126382067904231</v>
       </c>
     </row>
     <row r="1752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1752">
-        <v>26.154996132468199</v>
+        <v>30.430889952042829</v>
       </c>
       <c r="B1752">
-        <v>-81.789748677763441</v>
+        <v>-87.185472798293461</v>
       </c>
     </row>
     <row r="1753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1753">
-        <v>27.329913297760299</v>
+        <v>27.962300223414871</v>
       </c>
       <c r="B1753">
-        <v>-82.513634335224836</v>
+        <v>-82.431700754516669</v>
       </c>
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1754">
-        <v>25.77608737933604</v>
+        <v>30.467922447452139</v>
       </c>
       <c r="B1754">
-        <v>-80.213981630361232</v>
+        <v>-84.328852700084042</v>
       </c>
     </row>
     <row r="1755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1755">
-        <v>30.390697631104501</v>
+        <v>27.349110260449709</v>
       </c>
       <c r="B1755">
-        <v>-87.236762809317113</v>
+        <v>-82.578526678097163</v>
       </c>
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1756">
-        <v>26.151679066848331</v>
+        <v>25.77515335378887</v>
       </c>
       <c r="B1756">
-        <v>-81.804268242564845</v>
+        <v>-80.229284651207891</v>
       </c>
     </row>
     <row r="1757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1757">
-        <v>30.482580525208729</v>
+        <v>26.70037225969708</v>
       </c>
       <c r="B1757">
-        <v>-84.255853764294372</v>
+        <v>-80.078584128675971</v>
       </c>
     </row>
     <row r="1758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1758">
-        <v>30.393939542061968</v>
+        <v>29.66059126756636</v>
       </c>
       <c r="B1758">
-        <v>-84.2325757247512</v>
+        <v>-82.342840113054677</v>
       </c>
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1759">
-        <v>26.14102214303858</v>
+        <v>26.115661062333071</v>
       </c>
       <c r="B1759">
-        <v>-80.159196439452046</v>
+        <v>-81.767496593133671</v>
       </c>
     </row>
     <row r="1760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1760">
-        <v>28.56528376603832</v>
+        <v>28.539295041350229</v>
       </c>
       <c r="B1760">
-        <v>-81.395375525014686</v>
+        <v>-81.428468676598257</v>
       </c>
     </row>
     <row r="1761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1761">
-        <v>26.07327238911056</v>
+        <v>27.36843745016597</v>
       </c>
       <c r="B1761">
-        <v>-80.144808370994298</v>
+        <v>-82.579500449636683</v>
       </c>
     </row>
     <row r="1762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1762">
-        <v>27.30282963058513</v>
+        <v>26.399220877281252</v>
       </c>
       <c r="B1762">
-        <v>-82.565162052985372</v>
+        <v>-80.156004516427686</v>
       </c>
     </row>
     <row r="1763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1763">
-        <v>26.11251048443172</v>
+        <v>30.336843016385419</v>
       </c>
       <c r="B1763">
-        <v>-80.110196180528376</v>
+        <v>-81.673260769154993</v>
       </c>
     </row>
     <row r="1764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1764">
-        <v>26.740562700780739</v>
+        <v>30.33595255291171</v>
       </c>
       <c r="B1764">
-        <v>-80.093352011451273</v>
+        <v>-81.679523612297388</v>
       </c>
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1765">
-        <v>27.380871459530049</v>
+        <v>26.61226169938632</v>
       </c>
       <c r="B1765">
-        <v>-82.484874942512533</v>
+        <v>-81.862810704563842</v>
       </c>
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1766">
-        <v>28.51135059349194</v>
+        <v>29.668834355908711</v>
       </c>
       <c r="B1766">
-        <v>-81.420261756659428</v>
+        <v>-82.349789210275361</v>
       </c>
     </row>
     <row r="1767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1767">
-        <v>26.643686472019489</v>
+        <v>30.424585446391848</v>
       </c>
       <c r="B1767">
-        <v>-81.856016675170736</v>
+        <v>-84.303440520475519</v>
       </c>
     </row>
     <row r="1768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1768">
-        <v>28.50404074368674</v>
+        <v>26.12837568433315</v>
       </c>
       <c r="B1768">
-        <v>-81.393031881126888</v>
+        <v>-81.799901355155811</v>
       </c>
     </row>
     <row r="1769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1769">
-        <v>30.29332616301679</v>
+        <v>27.35636218675613</v>
       </c>
       <c r="B1769">
-        <v>-81.607650417989177</v>
+        <v>-82.484752758447485</v>
       </c>
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1770">
-        <v>26.731449318663781</v>
+        <v>26.740099629009801</v>
       </c>
       <c r="B1770">
-        <v>-80.063140299694766</v>
+        <v>-80.059987392921329</v>
       </c>
     </row>
     <row r="1771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1771">
-        <v>30.435388712929822</v>
+        <v>27.9934223994611</v>
       </c>
       <c r="B1771">
-        <v>-84.249076481066922</v>
+        <v>-82.449420336400777</v>
       </c>
     </row>
     <row r="1772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1772">
-        <v>29.677739663532019</v>
+        <v>29.626652559706422</v>
       </c>
       <c r="B1772">
-        <v>-82.336897701876083</v>
+        <v>-82.360865949102433</v>
       </c>
     </row>
     <row r="1773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1773">
-        <v>29.631858020897539</v>
+        <v>26.149921369438179</v>
       </c>
       <c r="B1773">
-        <v>-82.329430852421766</v>
+        <v>-81.781089803497863</v>
       </c>
     </row>
     <row r="1774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1774">
-        <v>30.436574851400369</v>
+        <v>26.108334686981099</v>
       </c>
       <c r="B1774">
-        <v>-84.249618794689027</v>
+        <v>-81.804692539586441</v>
       </c>
     </row>
     <row r="1775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1775">
-        <v>26.35532974141832</v>
+        <v>27.9081961372409</v>
       </c>
       <c r="B1775">
-        <v>-80.137330483310762</v>
+        <v>-82.454776928017509</v>
       </c>
     </row>
     <row r="1776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1776">
-        <v>27.298647804795841</v>
+        <v>28.578903059710829</v>
       </c>
       <c r="B1776">
-        <v>-82.536812215395159</v>
+        <v>-81.381864475352614</v>
       </c>
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1777">
-        <v>27.927410196002072</v>
+        <v>26.38662845952279</v>
       </c>
       <c r="B1777">
-        <v>-82.815537275423253</v>
+        <v>-80.153226556905352</v>
       </c>
     </row>
     <row r="1778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1778">
-        <v>27.99559105240883</v>
+        <v>26.353450955357971</v>
       </c>
       <c r="B1778">
-        <v>-82.818359736499261</v>
+        <v>-80.152685700882728</v>
       </c>
     </row>
     <row r="1779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1779">
-        <v>30.290057243285371</v>
+        <v>26.08462464572278</v>
       </c>
       <c r="B1779">
-        <v>-81.667794113723602</v>
+        <v>-80.182303840899337</v>
       </c>
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1780">
-        <v>26.608428168106649</v>
+        <v>25.75449946967554</v>
       </c>
       <c r="B1780">
-        <v>-81.880628688992758</v>
+        <v>-80.231434169059241</v>
       </c>
     </row>
     <row r="1781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1781">
-        <v>30.43020864111271</v>
+        <v>26.11969576527969</v>
       </c>
       <c r="B1781">
-        <v>-87.200116853856798</v>
+        <v>-80.119598803093211</v>
       </c>
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1782">
-        <v>27.816489267926819</v>
+        <v>26.665628531505511</v>
       </c>
       <c r="B1782">
-        <v>-82.622467313269155</v>
+        <v>-81.880714664673576</v>
       </c>
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1783">
-        <v>26.156048377741669</v>
+        <v>26.414603367671958</v>
       </c>
       <c r="B1783">
-        <v>-80.088575851735584</v>
+        <v>-80.14139497309236</v>
       </c>
     </row>
     <row r="1784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1784">
-        <v>27.968211158397459</v>
+        <v>30.422157975094379</v>
       </c>
       <c r="B1784">
-        <v>-82.44582934521361</v>
+        <v>-84.241401666461272</v>
       </c>
     </row>
     <row r="1785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1785">
-        <v>26.106397282740531</v>
+        <v>30.419592315860879</v>
       </c>
       <c r="B1785">
-        <v>-80.126382067904231</v>
+        <v>-84.286070330284971</v>
       </c>
     </row>
     <row r="1786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1786">
-        <v>30.430889952042829</v>
+        <v>27.812103662269621</v>
       </c>
       <c r="B1786">
-        <v>-87.185472798293461</v>
+        <v>-82.615404030282704</v>
       </c>
     </row>
     <row r="1787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1787">
-        <v>26.615773719848391</v>
+        <v>30.34048062017122</v>
       </c>
       <c r="B1787">
-        <v>-81.854319872962961</v>
+        <v>-81.636535988220629</v>
       </c>
     </row>
     <row r="1788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1788">
-        <v>27.962300223414871</v>
+        <v>26.320372196776329</v>
       </c>
       <c r="B1788">
-        <v>-82.431700754516669</v>
+        <v>-80.16009307290021</v>
       </c>
     </row>
     <row r="1789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1789">
-        <v>30.467922447452139</v>
+        <v>29.670867096750211</v>
       </c>
       <c r="B1789">
-        <v>-84.328852700084042</v>
+        <v>-82.362684675770623</v>
       </c>
     </row>
     <row r="1790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1790">
-        <v>27.349110260449709</v>
+        <v>27.960022343646042</v>
       </c>
       <c r="B1790">
-        <v>-82.578526678097163</v>
+        <v>-82.474723213276278</v>
       </c>
     </row>
     <row r="1791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1791">
-        <v>26.679343712838062</v>
+        <v>26.671450194364301</v>
       </c>
       <c r="B1791">
-        <v>-80.029217356676142</v>
+        <v>-80.060820424015958</v>
       </c>
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1792">
-        <v>25.77515335378887</v>
+        <v>30.363755529250309</v>
       </c>
       <c r="B1792">
-        <v>-80.229284651207891</v>
+        <v>-81.696803671507851</v>
       </c>
     </row>
     <row r="1793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1793">
-        <v>27.371824847079779</v>
+        <v>27.956096445112379</v>
       </c>
       <c r="B1793">
-        <v>-82.500496466150977</v>
+        <v>-82.463475739124931</v>
       </c>
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1794">
-        <v>26.70037225969708</v>
+        <v>29.678222150525301</v>
       </c>
       <c r="B1794">
-        <v>-80.078584128675971</v>
+        <v>-82.303354408505911</v>
       </c>
     </row>
     <row r="1795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1795">
-        <v>29.66059126756636</v>
+        <v>26.669229369468749</v>
       </c>
       <c r="B1795">
-        <v>-82.342840113054677</v>
+        <v>-81.894247555314536</v>
       </c>
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1796">
-        <v>26.375280483039759</v>
+        <v>30.409822412965308</v>
       </c>
       <c r="B1796">
-        <v>-80.178260256570283</v>
+        <v>-84.297733149772895</v>
       </c>
     </row>
     <row r="1797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1797">
-        <v>26.115661062333071</v>
+        <v>30.427382025595591</v>
       </c>
       <c r="B1797">
-        <v>-81.767496593133671</v>
+        <v>-87.167392534701548</v>
       </c>
     </row>
     <row r="1798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1798">
-        <v>28.539295041350229</v>
+        <v>30.333669614309549</v>
       </c>
       <c r="B1798">
-        <v>-81.428468676598257</v>
+        <v>-81.657634917867355</v>
       </c>
     </row>
     <row r="1799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1799">
-        <v>27.36843745016597</v>
+        <v>26.694379742363719</v>
       </c>
       <c r="B1799">
-        <v>-82.579500449636683</v>
+        <v>-80.101125764600539</v>
       </c>
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1800">
-        <v>26.399220877281252</v>
+        <v>27.98709260133856</v>
       </c>
       <c r="B1800">
-        <v>-80.156004516427686</v>
+        <v>-82.819206893036309</v>
       </c>
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1801">
-        <v>30.336843016385419</v>
+        <v>29.671991688245591</v>
       </c>
       <c r="B1801">
-        <v>-81.673260769154993</v>
+        <v>-82.325316377423732</v>
       </c>
     </row>
     <row r="1802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1802">
-        <v>30.33595255291171</v>
+        <v>30.446829378546589</v>
       </c>
       <c r="B1802">
-        <v>-81.679523612297388</v>
+        <v>-84.296571883652717</v>
       </c>
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1803">
-        <v>26.61226169938632</v>
+        <v>26.14470303993712</v>
       </c>
       <c r="B1803">
-        <v>-81.862810704563842</v>
+        <v>-80.147934734836554</v>
       </c>
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1804">
-        <v>29.668834355908711</v>
+        <v>27.31199840117225</v>
       </c>
       <c r="B1804">
-        <v>-82.349789210275361</v>
+        <v>-82.495462194918503</v>
       </c>
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1805">
-        <v>30.424585446391848</v>
+        <v>26.136907024084621</v>
       </c>
       <c r="B1805">
-        <v>-84.303440520475519</v>
+        <v>-80.106737706361187</v>
       </c>
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1806">
-        <v>26.12837568433315</v>
+        <v>30.33565731614609</v>
       </c>
       <c r="B1806">
-        <v>-81.799901355155811</v>
+        <v>-81.654802461780861</v>
       </c>
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1807">
-        <v>27.35636218675613</v>
+        <v>27.951933112726081</v>
       </c>
       <c r="B1807">
-        <v>-82.484752758447485</v>
+        <v>-82.453349167445708</v>
       </c>
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1808">
-        <v>26.740099629009801</v>
+        <v>27.79606020336124</v>
       </c>
       <c r="B1808">
-        <v>-80.059987392921329</v>
+        <v>-82.669668431656191</v>
       </c>
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1809">
-        <v>26.190502775527101</v>
+        <v>27.924365431409662</v>
       </c>
       <c r="B1809">
-        <v>-81.829772202813601</v>
+        <v>-82.408941423334923</v>
       </c>
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1810">
-        <v>27.9934223994611</v>
+        <v>26.16060564436301</v>
       </c>
       <c r="B1810">
-        <v>-82.449420336400777</v>
+        <v>-80.105295745220829</v>
       </c>
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1811">
-        <v>29.626652559706422</v>
+        <v>28.000375837373401</v>
       </c>
       <c r="B1811">
-        <v>-82.360865949102433</v>
+        <v>-82.478705429365604</v>
       </c>
     </row>
     <row r="1812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1812">
-        <v>26.149921369438179</v>
+        <v>27.99839506551287</v>
       </c>
       <c r="B1812">
-        <v>-81.781089803497863</v>
+        <v>-82.784930589331353</v>
       </c>
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1813">
-        <v>26.3462444194417</v>
+        <v>26.145808040096082</v>
       </c>
       <c r="B1813">
-        <v>-80.090990154525542</v>
+        <v>-80.164539989936117</v>
       </c>
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1814">
-        <v>26.108334686981099</v>
+        <v>27.948949266103739</v>
       </c>
       <c r="B1814">
-        <v>-81.804692539586441</v>
+        <v>-82.753436257400693</v>
       </c>
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1815">
-        <v>30.40192371111074</v>
+        <v>27.992759140559631</v>
       </c>
       <c r="B1815">
-        <v>-87.192638788062439</v>
+        <v>-82.765576990567695</v>
       </c>
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1816">
-        <v>27.95973026915425</v>
+        <v>28.581239908689032</v>
       </c>
       <c r="B1816">
-        <v>-82.441001618570439</v>
+        <v>-81.410759470235845</v>
       </c>
     </row>
     <row r="1817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1817">
-        <v>26.097892562837391</v>
+        <v>29.67834882305209</v>
       </c>
       <c r="B1817">
-        <v>-80.088853653578397</v>
+        <v>-82.358468396858711</v>
       </c>
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1818">
-        <v>27.73107974135845</v>
+        <v>27.983120629712271</v>
       </c>
       <c r="B1818">
-        <v>-82.610751222652695</v>
+        <v>-82.478812252631187</v>
       </c>
     </row>
     <row r="1819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1819">
-        <v>27.99644336978422</v>
+        <v>27.321701261397369</v>
       </c>
       <c r="B1819">
-        <v>-82.75524771624417</v>
+        <v>-82.561414706338681</v>
       </c>
     </row>
     <row r="1820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1820">
-        <v>27.9081961372409</v>
+        <v>26.082076960234769</v>
       </c>
       <c r="B1820">
-        <v>-82.454776928017509</v>
+        <v>-80.138854276191338</v>
       </c>
     </row>
     <row r="1821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1821">
-        <v>27.775616953246519</v>
+        <v>26.112782582777911</v>
       </c>
       <c r="B1821">
-        <v>-82.643226748665754</v>
+        <v>-81.749060013353116</v>
       </c>
     </row>
     <row r="1822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1822">
-        <v>28.578903059710829</v>
+        <v>27.814006904365009</v>
       </c>
       <c r="B1822">
-        <v>-81.381864475352614</v>
+        <v>-82.644216477168968</v>
       </c>
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1823">
-        <v>26.38662845952279</v>
+        <v>30.44397186173817</v>
       </c>
       <c r="B1823">
-        <v>-80.153226556905352</v>
+        <v>-84.280609849781897</v>
       </c>
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1824">
-        <v>26.686965174413832</v>
+        <v>27.722178536623691</v>
       </c>
       <c r="B1824">
-        <v>-80.017652400417987</v>
+        <v>-82.629385840536614</v>
       </c>
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1825">
-        <v>26.353450955357971</v>
+        <v>26.14174971418398</v>
       </c>
       <c r="B1825">
-        <v>-80.152685700882728</v>
+        <v>-81.746042078380782</v>
       </c>
     </row>
     <row r="1826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1826">
-        <v>26.60957862029634</v>
+        <v>26.62774498361372</v>
       </c>
       <c r="B1826">
-        <v>-81.830520375915199</v>
+        <v>-81.866085601318019</v>
       </c>
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1827">
-        <v>26.08462464572278</v>
+        <v>27.354003915288239</v>
       </c>
       <c r="B1827">
-        <v>-80.182303840899337</v>
+        <v>-82.528677618550205</v>
       </c>
     </row>
     <row r="1828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1828">
-        <v>25.75449946967554</v>
+        <v>26.150504990733559</v>
       </c>
       <c r="B1828">
-        <v>-80.231434169059241</v>
+        <v>-80.122798250932377</v>
       </c>
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1829">
-        <v>27.9576723939381</v>
+        <v>27.292050724144978</v>
       </c>
       <c r="B1829">
-        <v>-82.784789939115711</v>
+        <v>-82.555684918781765</v>
       </c>
     </row>
     <row r="1830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1830">
-        <v>26.11969576527969</v>
+        <v>30.43118456119074</v>
       </c>
       <c r="B1830">
-        <v>-80.119598803093211</v>
+        <v>-84.307963815860973</v>
       </c>
     </row>
     <row r="1831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1831">
-        <v>26.665628531505511</v>
+        <v>29.602878449562329</v>
       </c>
       <c r="B1831">
-        <v>-81.880714664673576</v>
+        <v>-82.347153802518847</v>
       </c>
     </row>
     <row r="1832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1832">
-        <v>26.414603367671958</v>
+        <v>26.15573435600815</v>
       </c>
       <c r="B1832">
-        <v>-80.14139497309236</v>
+        <v>-81.774457258480737</v>
       </c>
     </row>
     <row r="1833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1833">
-        <v>26.18762048781787</v>
+        <v>27.733104040284989</v>
       </c>
       <c r="B1833">
-        <v>-81.751774672950546</v>
+        <v>-82.631300335407246</v>
       </c>
     </row>
     <row r="1834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1834">
-        <v>26.668448954126681</v>
+        <v>26.669613258680091</v>
       </c>
       <c r="B1834">
-        <v>-80.021376630812824</v>
+        <v>-80.06568140627688</v>
       </c>
     </row>
     <row r="1835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1835">
-        <v>30.422157975094379</v>
+        <v>27.345274231550238</v>
       </c>
       <c r="B1835">
-        <v>-84.241401666461272</v>
+        <v>-82.516018880742791</v>
       </c>
     </row>
     <row r="1836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1836">
-        <v>30.419592315860879</v>
+        <v>30.380266405831691</v>
       </c>
       <c r="B1836">
-        <v>-84.286070330284971</v>
+        <v>-87.170388041585113</v>
       </c>
     </row>
     <row r="1837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1837">
-        <v>27.812103662269621</v>
+        <v>30.40615830413573</v>
       </c>
       <c r="B1837">
-        <v>-82.615404030282704</v>
+        <v>-84.297734659606036</v>
       </c>
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1838">
-        <v>30.34048062017122</v>
+        <v>27.92587448287069</v>
       </c>
       <c r="B1838">
-        <v>-81.636535988220629</v>
+        <v>-82.490656836047307</v>
       </c>
     </row>
     <row r="1839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1839">
-        <v>26.320372196776329</v>
+        <v>26.642429419110091</v>
       </c>
       <c r="B1839">
-        <v>-80.16009307290021</v>
+        <v>-81.891984876677824</v>
       </c>
     </row>
     <row r="1840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1840">
-        <v>27.724750457667319</v>
+        <v>26.33063186446655</v>
       </c>
       <c r="B1840">
-        <v>-82.617412954765783</v>
+        <v>-80.133254144152957</v>
       </c>
     </row>
     <row r="1841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1841">
-        <v>29.670867096750211</v>
+        <v>26.093769144827739</v>
       </c>
       <c r="B1841">
-        <v>-82.362684675770623</v>
+        <v>-80.108161887603273</v>
       </c>
     </row>
     <row r="1842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1842">
-        <v>27.941907405767029</v>
+        <v>26.358503976681479</v>
       </c>
       <c r="B1842">
-        <v>-82.847309408547588</v>
+        <v>-80.169899131375317</v>
       </c>
     </row>
     <row r="1843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1843">
-        <v>27.960022343646042</v>
+        <v>30.37525958975171</v>
       </c>
       <c r="B1843">
-        <v>-82.474723213276278</v>
+        <v>-87.244015001954025</v>
       </c>
     </row>
     <row r="1844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1844">
-        <v>26.671450194364301</v>
+        <v>29.650136345597119</v>
       </c>
       <c r="B1844">
-        <v>-80.060820424015958</v>
+        <v>-82.302249140477016</v>
       </c>
     </row>
     <row r="1845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1845">
-        <v>26.400967645567231</v>
+        <v>26.591593457122531</v>
       </c>
       <c r="B1845">
-        <v>-80.096836707074218</v>
+        <v>-81.892867154741708</v>
       </c>
     </row>
     <row r="1846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1846">
-        <v>30.363755529250309</v>
+        <v>30.48470449131047</v>
       </c>
       <c r="B1846">
-        <v>-81.696803671507851</v>
+        <v>-84.284325692506158</v>
       </c>
     </row>
     <row r="1847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1847">
-        <v>27.956096445112379</v>
+        <v>28.51173321056234</v>
       </c>
       <c r="B1847">
-        <v>-82.463475739124931</v>
+        <v>-81.38253798190199</v>
       </c>
     </row>
     <row r="1848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1848">
-        <v>29.678222150525301</v>
+        <v>27.99002684426824</v>
       </c>
       <c r="B1848">
-        <v>-82.303354408505911</v>
+        <v>-82.46810716791191</v>
       </c>
     </row>
     <row r="1849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1849">
-        <v>26.669229369468749</v>
+        <v>26.744771153120759</v>
       </c>
       <c r="B1849">
-        <v>-81.894247555314536</v>
+        <v>-80.081754705243014</v>
       </c>
     </row>
     <row r="1850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1850">
-        <v>30.409822412965308</v>
+        <v>30.46687964013185</v>
       </c>
       <c r="B1850">
-        <v>-84.297733149772895</v>
+        <v>-87.21504161398866</v>
       </c>
     </row>
     <row r="1851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1851">
-        <v>30.451817882785669</v>
+        <v>26.136407727085629</v>
       </c>
       <c r="B1851">
-        <v>-84.243804993424007</v>
+        <v>-81.802714445192066</v>
       </c>
     </row>
     <row r="1852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1852">
-        <v>27.958719290002168</v>
+        <v>30.395820049656319</v>
       </c>
       <c r="B1852">
-        <v>-82.8380590631524</v>
+        <v>-87.234173758013071</v>
       </c>
     </row>
     <row r="1853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1853">
-        <v>30.427382025595591</v>
+        <v>27.808528144930751</v>
       </c>
       <c r="B1853">
-        <v>-87.167392534701548</v>
+        <v>-82.645522030014604</v>
       </c>
     </row>
     <row r="1854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1854">
-        <v>30.333669614309549</v>
+        <v>28.523269205156801</v>
       </c>
       <c r="B1854">
-        <v>-81.657634917867355</v>
+        <v>-81.388087702224212</v>
       </c>
     </row>
     <row r="1855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1855">
-        <v>26.6823168854872</v>
+        <v>30.371525673669652</v>
       </c>
       <c r="B1855">
-        <v>-81.895737834954787</v>
+        <v>-87.172979381303975</v>
       </c>
     </row>
     <row r="1856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1856">
-        <v>26.694379742363719</v>
+        <v>28.558480485185822</v>
       </c>
       <c r="B1856">
-        <v>-80.101125764600539</v>
+        <v>-81.41388255723129</v>
       </c>
     </row>
     <row r="1857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1857">
-        <v>26.131744655216469</v>
+        <v>28.55397044995707</v>
       </c>
       <c r="B1857">
-        <v>-80.097051580010032</v>
+        <v>-81.410657663657418</v>
       </c>
     </row>
     <row r="1858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1858">
-        <v>27.98709260133856</v>
+        <v>27.940955583121781</v>
       </c>
       <c r="B1858">
-        <v>-82.819206893036309</v>
+        <v>-82.785549370029074</v>
       </c>
     </row>
     <row r="1859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1859">
-        <v>29.671991688245591</v>
+        <v>28.524528800839619</v>
       </c>
       <c r="B1859">
-        <v>-82.325316377423732</v>
+        <v>-81.418981605294761</v>
       </c>
     </row>
     <row r="1860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1860">
-        <v>30.446829378546589</v>
+        <v>30.42807839285787</v>
       </c>
       <c r="B1860">
-        <v>-84.296571883652717</v>
+        <v>-84.286464602019919</v>
       </c>
     </row>
     <row r="1861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1861">
-        <v>26.14470303993712</v>
+        <v>30.40225081454286</v>
       </c>
       <c r="B1861">
-        <v>-80.147934734836554</v>
+        <v>-87.249218450145989</v>
       </c>
     </row>
     <row r="1862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1862">
-        <v>27.31199840117225</v>
+        <v>28.532887827381501</v>
       </c>
       <c r="B1862">
-        <v>-82.495462194918503</v>
+        <v>-81.342796394950909</v>
       </c>
     </row>
     <row r="1863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1863">
-        <v>26.136907024084621</v>
+        <v>26.665007006403979</v>
       </c>
       <c r="B1863">
-        <v>-80.106737706361187</v>
+        <v>-81.875151064810282</v>
       </c>
     </row>
     <row r="1864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1864">
-        <v>26.123401584768409</v>
+        <v>26.12622665905322</v>
       </c>
       <c r="B1864">
-        <v>-80.14180299599559</v>
+        <v>-81.76208546467933</v>
       </c>
     </row>
     <row r="1865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1865">
-        <v>30.33565731614609</v>
+        <v>30.47495817947167</v>
       </c>
       <c r="B1865">
-        <v>-81.654802461780861</v>
+        <v>-84.280788131099385</v>
       </c>
     </row>
     <row r="1866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1866">
-        <v>27.963785244050051</v>
+        <v>26.141920881604321</v>
       </c>
       <c r="B1866">
-        <v>-82.774319125030559</v>
+        <v>-80.147281329268836</v>
       </c>
     </row>
     <row r="1867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1867">
-        <v>27.951933112726081</v>
+        <v>27.30727660934657</v>
       </c>
       <c r="B1867">
-        <v>-82.453349167445708</v>
+        <v>-82.557475558166871</v>
       </c>
     </row>
     <row r="1868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1868">
-        <v>27.79606020336124</v>
+        <v>28.50220507176304</v>
       </c>
       <c r="B1868">
-        <v>-82.669668431656191</v>
+        <v>-81.377582294272386</v>
       </c>
     </row>
     <row r="1869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1869">
-        <v>26.380830694278</v>
+        <v>26.73433973318512</v>
       </c>
       <c r="B1869">
-        <v>-80.175712512946703</v>
+        <v>-80.032029065020822</v>
       </c>
     </row>
     <row r="1870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1870">
-        <v>27.924365431409662</v>
+        <v>26.112591327533821</v>
       </c>
       <c r="B1870">
-        <v>-82.408941423334923</v>
+        <v>-81.770259631607615</v>
       </c>
     </row>
     <row r="1871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1871">
-        <v>26.16060564436301</v>
+        <v>28.5798556304144</v>
       </c>
       <c r="B1871">
-        <v>-80.105295745220829</v>
+        <v>-81.40128380570512</v>
       </c>
     </row>
     <row r="1872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1872">
-        <v>28.000375837373401</v>
+        <v>27.73083627230276</v>
       </c>
       <c r="B1872">
-        <v>-82.478705429365604</v>
+        <v>-82.625378474227091</v>
       </c>
     </row>
     <row r="1873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1873">
-        <v>27.99839506551287</v>
+        <v>28.521428948370641</v>
       </c>
       <c r="B1873">
-        <v>-82.784930589331353</v>
+        <v>-81.39843388580276</v>
       </c>
     </row>
     <row r="1874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1874">
-        <v>26.145808040096082</v>
+        <v>25.756965237913839</v>
       </c>
       <c r="B1874">
-        <v>-80.164539989936117</v>
+        <v>-80.222369551659895</v>
       </c>
     </row>
     <row r="1875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1875">
-        <v>26.108194150117761</v>
+        <v>30.402552960554761</v>
       </c>
       <c r="B1875">
-        <v>-81.837966634057864</v>
+        <v>-84.307661916200004</v>
       </c>
     </row>
     <row r="1876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1876">
-        <v>30.40829781196258</v>
+        <v>26.122026749709679</v>
       </c>
       <c r="B1876">
-        <v>-87.190573434110348</v>
+        <v>-80.112702170037764</v>
       </c>
     </row>
     <row r="1877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1877">
-        <v>27.948949266103739</v>
+        <v>30.294941803457849</v>
       </c>
       <c r="B1877">
-        <v>-82.753436257400693</v>
+        <v>-81.631755551875543</v>
       </c>
     </row>
     <row r="1878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1878">
-        <v>27.992759140559631</v>
+        <v>27.344732589832599</v>
       </c>
       <c r="B1878">
-        <v>-82.765576990567695</v>
+        <v>-82.511068603820689</v>
       </c>
     </row>
     <row r="1879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1879">
-        <v>28.581239908689032</v>
+        <v>26.149799079368659</v>
       </c>
       <c r="B1879">
-        <v>-81.410759470235845</v>
+        <v>-81.763079302952292</v>
       </c>
     </row>
     <row r="1880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1880">
-        <v>29.67834882305209</v>
+        <v>29.636136890791921</v>
       </c>
       <c r="B1880">
-        <v>-82.358468396858711</v>
+        <v>-82.340022363506648</v>
       </c>
     </row>
     <row r="1881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1881">
-        <v>27.983120629712271</v>
+        <v>27.92403141765115</v>
       </c>
       <c r="B1881">
-        <v>-82.478812252631187</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1882">
-        <v>27.321701261397369</v>
-      </c>
-      <c r="B1882">
-        <v>-82.561414706338681</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1883">
-        <v>28.008692837932141</v>
-      </c>
-      <c r="B1883">
-        <v>-82.759902189551795</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1884">
-        <v>26.082076960234769</v>
-      </c>
-      <c r="B1884">
-        <v>-80.138854276191338</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1885">
-        <v>26.112782582777911</v>
-      </c>
-      <c r="B1885">
-        <v>-81.749060013353116</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1886">
-        <v>27.814006904365009</v>
-      </c>
-      <c r="B1886">
-        <v>-82.644216477168968</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1887">
-        <v>30.44397186173817</v>
-      </c>
-      <c r="B1887">
-        <v>-84.280609849781897</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1888">
-        <v>27.722178536623691</v>
-      </c>
-      <c r="B1888">
-        <v>-82.629385840536614</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1889">
-        <v>26.14174971418398</v>
-      </c>
-      <c r="B1889">
-        <v>-81.746042078380782</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1890">
-        <v>26.62774498361372</v>
-      </c>
-      <c r="B1890">
-        <v>-81.866085601318019</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1891">
-        <v>25.731706410880289</v>
-      </c>
-      <c r="B1891">
-        <v>-80.151901830402352</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1892">
-        <v>27.354003915288239</v>
-      </c>
-      <c r="B1892">
-        <v>-82.528677618550205</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1893">
-        <v>26.150504990733559</v>
-      </c>
-      <c r="B1893">
-        <v>-80.122798250932377</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1894">
-        <v>26.682692871234</v>
-      </c>
-      <c r="B1894">
-        <v>-80.030720433036848</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1895">
-        <v>27.292050724144978</v>
-      </c>
-      <c r="B1895">
-        <v>-82.555684918781765</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1896">
-        <v>30.443753618171769</v>
-      </c>
-      <c r="B1896">
-        <v>-84.321892197168467</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1897">
-        <v>30.43118456119074</v>
-      </c>
-      <c r="B1897">
-        <v>-84.307963815860973</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1898">
-        <v>29.602878449562329</v>
-      </c>
-      <c r="B1898">
-        <v>-82.347153802518847</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1899">
-        <v>26.15573435600815</v>
-      </c>
-      <c r="B1899">
-        <v>-81.774457258480737</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1900">
-        <v>27.733104040284989</v>
-      </c>
-      <c r="B1900">
-        <v>-82.631300335407246</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1901">
-        <v>26.669613258680091</v>
-      </c>
-      <c r="B1901">
-        <v>-80.06568140627688</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1902">
-        <v>27.345274231550238</v>
-      </c>
-      <c r="B1902">
-        <v>-82.516018880742791</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1903">
-        <v>30.380266405831691</v>
-      </c>
-      <c r="B1903">
-        <v>-87.170388041585113</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1904">
-        <v>26.11491245910679</v>
-      </c>
-      <c r="B1904">
-        <v>-81.84297775900761</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1905">
-        <v>30.40615830413573</v>
-      </c>
-      <c r="B1905">
-        <v>-84.297734659606036</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1906">
-        <v>27.92587448287069</v>
-      </c>
-      <c r="B1906">
-        <v>-82.490656836047307</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1907">
-        <v>26.642429419110091</v>
-      </c>
-      <c r="B1907">
-        <v>-81.891984876677824</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1908">
-        <v>26.33063186446655</v>
-      </c>
-      <c r="B1908">
-        <v>-80.133254144152957</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1909">
-        <v>25.791152699936081</v>
-      </c>
-      <c r="B1909">
-        <v>-80.178165357027083</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1910">
-        <v>26.728232897630559</v>
-      </c>
-      <c r="B1910">
-        <v>-80.017424898789258</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1911">
-        <v>26.093769144827739</v>
-      </c>
-      <c r="B1911">
-        <v>-80.108161887603273</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1912">
-        <v>26.358503976681479</v>
-      </c>
-      <c r="B1912">
-        <v>-80.169899131375317</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1913">
-        <v>27.91110048409605</v>
-      </c>
-      <c r="B1913">
-        <v>-82.484930430360563</v>
-      </c>
-    </row>
-    <row r="1914" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1914">
-        <v>30.37525958975171</v>
-      </c>
-      <c r="B1914">
-        <v>-87.244015001954025</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1915">
-        <v>29.650136345597119</v>
-      </c>
-      <c r="B1915">
-        <v>-82.302249140477016</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1916">
-        <v>26.591593457122531</v>
-      </c>
-      <c r="B1916">
-        <v>-81.892867154741708</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1917">
-        <v>30.48470449131047</v>
-      </c>
-      <c r="B1917">
-        <v>-84.284325692506158</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1918">
-        <v>28.51173321056234</v>
-      </c>
-      <c r="B1918">
-        <v>-81.38253798190199</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1919">
-        <v>27.99002684426824</v>
-      </c>
-      <c r="B1919">
-        <v>-82.46810716791191</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1920">
-        <v>26.744771153120759</v>
-      </c>
-      <c r="B1920">
-        <v>-80.081754705243014</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1921">
-        <v>30.46687964013185</v>
-      </c>
-      <c r="B1921">
-        <v>-87.21504161398866</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1922">
-        <v>26.136407727085629</v>
-      </c>
-      <c r="B1922">
-        <v>-81.802714445192066</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1923">
-        <v>30.395820049656319</v>
-      </c>
-      <c r="B1923">
-        <v>-87.234173758013071</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1924">
-        <v>28.543871241740941</v>
-      </c>
-      <c r="B1924">
-        <v>-81.365475454532458</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1925">
-        <v>30.448004384584209</v>
-      </c>
-      <c r="B1925">
-        <v>-84.328903037412218</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1926">
-        <v>27.808528144930751</v>
-      </c>
-      <c r="B1926">
-        <v>-82.645522030014604</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1927">
-        <v>28.523269205156801</v>
-      </c>
-      <c r="B1927">
-        <v>-81.388087702224212</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1928">
-        <v>30.371525673669652</v>
-      </c>
-      <c r="B1928">
-        <v>-87.172979381303975</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1929">
-        <v>28.558480485185822</v>
-      </c>
-      <c r="B1929">
-        <v>-81.41388255723129</v>
-      </c>
-    </row>
-    <row r="1930" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1930">
-        <v>30.307777717650939</v>
-      </c>
-      <c r="B1930">
-        <v>-81.686781908646552</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1931">
-        <v>28.55397044995707</v>
-      </c>
-      <c r="B1931">
-        <v>-81.410657663657418</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1932">
-        <v>27.940955583121781</v>
-      </c>
-      <c r="B1932">
-        <v>-82.785549370029074</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1933">
-        <v>28.524528800839619</v>
-      </c>
-      <c r="B1933">
-        <v>-81.418981605294761</v>
-      </c>
-    </row>
-    <row r="1934" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1934">
-        <v>30.42807839285787</v>
-      </c>
-      <c r="B1934">
-        <v>-84.286464602019919</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1935">
-        <v>30.40225081454286</v>
-      </c>
-      <c r="B1935">
-        <v>-87.249218450145989</v>
-      </c>
-    </row>
-    <row r="1936" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1936">
-        <v>28.532887827381501</v>
-      </c>
-      <c r="B1936">
-        <v>-81.342796394950909</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1937">
-        <v>26.593088371710319</v>
-      </c>
-      <c r="B1937">
-        <v>-81.853207874019418</v>
-      </c>
-    </row>
-    <row r="1938" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1938">
-        <v>26.665007006403979</v>
-      </c>
-      <c r="B1938">
-        <v>-81.875151064810282</v>
-      </c>
-    </row>
-    <row r="1939" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1939">
-        <v>27.948816853174439</v>
-      </c>
-      <c r="B1939">
-        <v>-82.799058916429502</v>
-      </c>
-    </row>
-    <row r="1940" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1940">
-        <v>26.12622665905322</v>
-      </c>
-      <c r="B1940">
-        <v>-81.76208546467933</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1941">
-        <v>30.47495817947167</v>
-      </c>
-      <c r="B1941">
-        <v>-84.280788131099385</v>
-      </c>
-    </row>
-    <row r="1942" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1942">
-        <v>27.917293084697029</v>
-      </c>
-      <c r="B1942">
-        <v>-82.767252825025651</v>
-      </c>
-    </row>
-    <row r="1943" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1943">
-        <v>26.141920881604321</v>
-      </c>
-      <c r="B1943">
-        <v>-80.147281329268836</v>
-      </c>
-    </row>
-    <row r="1944" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1944">
-        <v>27.30727660934657</v>
-      </c>
-      <c r="B1944">
-        <v>-82.557475558166871</v>
-      </c>
-    </row>
-    <row r="1945" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1945">
-        <v>28.50220507176304</v>
-      </c>
-      <c r="B1945">
-        <v>-81.377582294272386</v>
-      </c>
-    </row>
-    <row r="1946" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1946">
-        <v>26.73433973318512</v>
-      </c>
-      <c r="B1946">
-        <v>-80.032029065020822</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1947">
-        <v>27.966737047964951</v>
-      </c>
-      <c r="B1947">
-        <v>-82.479203379841081</v>
-      </c>
-    </row>
-    <row r="1948" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1948">
-        <v>26.112591327533821</v>
-      </c>
-      <c r="B1948">
-        <v>-81.770259631607615</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1949">
-        <v>28.5798556304144</v>
-      </c>
-      <c r="B1949">
-        <v>-81.40128380570512</v>
-      </c>
-    </row>
-    <row r="1950" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1950">
-        <v>27.73083627230276</v>
-      </c>
-      <c r="B1950">
-        <v>-82.625378474227091</v>
-      </c>
-    </row>
-    <row r="1951" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1951">
-        <v>28.521428948370641</v>
-      </c>
-      <c r="B1951">
-        <v>-81.39843388580276</v>
-      </c>
-    </row>
-    <row r="1952" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1952">
-        <v>25.756965237913839</v>
-      </c>
-      <c r="B1952">
-        <v>-80.222369551659895</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1953">
-        <v>30.439235723951271</v>
-      </c>
-      <c r="B1953">
-        <v>-84.327306724775013</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1954">
-        <v>30.402552960554761</v>
-      </c>
-      <c r="B1954">
-        <v>-84.307661916200004</v>
-      </c>
-    </row>
-    <row r="1955" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1955">
-        <v>26.122026749709679</v>
-      </c>
-      <c r="B1955">
-        <v>-80.112702170037764</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1956">
-        <v>27.772245253216909</v>
-      </c>
-      <c r="B1956">
-        <v>-82.614044873228437</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1957">
-        <v>30.294941803457849</v>
-      </c>
-      <c r="B1957">
-        <v>-81.631755551875543</v>
-      </c>
-    </row>
-    <row r="1958" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1958">
-        <v>27.344732589832599</v>
-      </c>
-      <c r="B1958">
-        <v>-82.511068603820689</v>
-      </c>
-    </row>
-    <row r="1959" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1959">
-        <v>26.40771213805591</v>
-      </c>
-      <c r="B1959">
-        <v>-80.097121628117776</v>
-      </c>
-    </row>
-    <row r="1960" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1960">
-        <v>26.149799079368659</v>
-      </c>
-      <c r="B1960">
-        <v>-81.763079302952292</v>
-      </c>
-    </row>
-    <row r="1961" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1961">
-        <v>29.636136890791921</v>
-      </c>
-      <c r="B1961">
-        <v>-82.340022363506648</v>
-      </c>
-    </row>
-    <row r="1962" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1962">
-        <v>30.3946269829034</v>
-      </c>
-      <c r="B1962">
-        <v>-87.198435807035125</v>
-      </c>
-    </row>
-    <row r="1963" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1963">
-        <v>27.92403141765115</v>
-      </c>
-      <c r="B1963">
         <v>-82.437320188779637</v>
-      </c>
-    </row>
-    <row r="1964" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1964">
-        <v>26.41173942329366</v>
-      </c>
-      <c r="B1964">
-        <v>-80.087972731513119</v>
-      </c>
-    </row>
-    <row r="1965" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1965">
-        <v>27.979046869203849</v>
-      </c>
-      <c r="B1965">
-        <v>-82.409836811173989</v>
-      </c>
-    </row>
-    <row r="1966" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1966">
-        <v>27.972057335428161</v>
-      </c>
-      <c r="B1966">
-        <v>-82.793973121199031</v>
-      </c>
-    </row>
-    <row r="1967" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1967">
-        <v>28.54902045858621</v>
-      </c>
-      <c r="B1967">
-        <v>-81.35786805543276</v>
-      </c>
-    </row>
-    <row r="1968" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1968">
-        <v>27.78260739667223</v>
-      </c>
-      <c r="B1968">
-        <v>-82.639627010394321</v>
-      </c>
-    </row>
-    <row r="1969" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1969">
-        <v>27.98588119362579</v>
-      </c>
-      <c r="B1969">
-        <v>-82.497246933213219</v>
-      </c>
-    </row>
-    <row r="1970" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1970">
-        <v>27.903461708758019</v>
-      </c>
-      <c r="B1970">
-        <v>-82.456439902351249</v>
-      </c>
-    </row>
-    <row r="1971" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1971">
-        <v>25.72470706458596</v>
-      </c>
-      <c r="B1971">
-        <v>-80.147711262383055</v>
-      </c>
-    </row>
-    <row r="1972" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1972">
-        <v>27.33209573178156</v>
-      </c>
-      <c r="B1972">
-        <v>-82.568717054270977</v>
-      </c>
-    </row>
-    <row r="1973" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1973">
-        <v>27.949258817907221</v>
-      </c>
-      <c r="B1973">
-        <v>-82.778662492667181</v>
-      </c>
-    </row>
-    <row r="1974" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1974">
-        <v>29.607645997975279</v>
-      </c>
-      <c r="B1974">
-        <v>-82.287389874253265</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FL_DataSet/FL_coordinates_train.xlsx
+++ b/FL_DataSet/FL_coordinates_train.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcao1\PycharmProjects\aiProject\FL_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE5E2B8-CBCD-4778-98C9-286EAD971B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E476E9BB-C914-449F-9050-68005456F68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11790" yWindow="983" windowWidth="16560" windowHeight="14497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A755" workbookViewId="0">
-      <selection activeCell="A774" sqref="A774:XFD776"/>
+    <sheetView tabSelected="1" topLeftCell="A1663" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B1701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
